--- a/data/TNC.xlsx
+++ b/data/TNC.xlsx
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>26/11/2025</t>
+    <t>17/12/2025</t>
   </si>
   <si>
     <t>TNC</t>
@@ -29629,7 +29629,7 @@
         <v>8.746869783E9</v>
       </c>
       <c r="I24" s="25" t="n">
-        <v>5.268335424E9</v>
+        <v>5.465367149E9</v>
       </c>
       <c r="K24" s="25" t="n">
         <v>1.417248584E9</v>
@@ -29725,7 +29725,7 @@
         <v>4.32700233E9</v>
       </c>
       <c r="AP24" s="25" t="n">
-        <v>5.268335424E9</v>
+        <v>5.465367149E9</v>
       </c>
       <c r="AQ24" s="25" t="n">
         <v>5.162497449E9</v>
@@ -30165,7 +30165,7 @@
         <v>8.746869783E9</v>
       </c>
       <c r="I28" s="25" t="n">
-        <v>5.268335424E9</v>
+        <v>5.465367149E9</v>
       </c>
       <c r="K28" s="25" t="n">
         <v>1.417248584E9</v>
@@ -30261,7 +30261,7 @@
         <v>4.32700233E9</v>
       </c>
       <c r="AP28" s="25" t="n">
-        <v>5.268335424E9</v>
+        <v>5.465367149E9</v>
       </c>
       <c r="AQ28" s="25" t="n">
         <v>5.162497449E9</v>
@@ -32979,7 +32979,7 @@
         <v>1.9663800183E11</v>
       </c>
       <c r="I49" s="25" t="n">
-        <v>1.902019289E11</v>
+        <v>1.91048192398E11</v>
       </c>
       <c r="K49" s="25" t="n">
         <v>1.0541878881E11</v>
@@ -33075,7 +33075,7 @@
         <v>1.96675732711E11</v>
       </c>
       <c r="AP49" s="25" t="n">
-        <v>1.902019289E11</v>
+        <v>1.91048192398E11</v>
       </c>
       <c r="AQ49" s="25" t="n">
         <v>1.91048192398E11</v>
@@ -33247,7 +33247,7 @@
         <v>5.214284786E9</v>
       </c>
       <c r="I51" s="25" t="n">
-        <v>1.967845555E9</v>
+        <v>8.687852012E9</v>
       </c>
       <c r="K51" s="25" t="n">
         <v>1.403E8</v>
@@ -33343,7 +33343,7 @@
         <v>1.150098636E9</v>
       </c>
       <c r="AP51" s="25" t="n">
-        <v>1.967845555E9</v>
+        <v>8.687852012E9</v>
       </c>
       <c r="AQ51" s="25" t="n">
         <v>0.0</v>
@@ -33381,7 +33381,7 @@
         <v>-9.689895E7</v>
       </c>
       <c r="I52" s="25" t="n">
-        <v>-8.441649565E9</v>
+        <v>-1.4315392524E10</v>
       </c>
       <c r="K52" s="25" t="n">
         <v>0.0</v>
@@ -33477,7 +33477,7 @@
         <v>-3.800901079E9</v>
       </c>
       <c r="AP52" s="25" t="n">
-        <v>-8.441649565E9</v>
+        <v>-1.4315392524E10</v>
       </c>
       <c r="AQ52" s="25" t="n">
         <v>0.0</v>
@@ -33515,7 +33515,7 @@
         <v>8.4810137565E10</v>
       </c>
       <c r="I53" s="25" t="n">
-        <v>8.9063777954E10</v>
+        <v>8.8669170224E10</v>
       </c>
       <c r="K53" s="25" t="n">
         <v>6.0415045622E10</v>
@@ -33611,7 +33611,7 @@
         <v>8.9720807414E10</v>
       </c>
       <c r="AP53" s="25" t="n">
-        <v>8.9063777954E10</v>
+        <v>8.8669170224E10</v>
       </c>
       <c r="AQ53" s="25" t="n">
         <v>9.1002544349E10</v>
@@ -33649,7 +33649,7 @@
         <v>8.2328709739E10</v>
       </c>
       <c r="I54" s="25" t="n">
-        <v>8.9720807596E10</v>
+        <v>8.4810137565E10</v>
       </c>
       <c r="K54" s="25" t="n">
         <v>5.9123635794E10</v>
@@ -33745,7 +33745,7 @@
         <v>8.862047595E10</v>
       </c>
       <c r="AP54" s="25" t="n">
-        <v>8.9720807596E10</v>
+        <v>8.4810137565E10</v>
       </c>
       <c r="AQ54" s="25" t="n">
         <v>8.8669170224E10</v>
@@ -33783,7 +33783,7 @@
         <v>2.558594901E9</v>
       </c>
       <c r="I55" s="25" t="n">
-        <v>2.410417327E9</v>
+        <v>1.0185268382E10</v>
       </c>
       <c r="K55" s="25" t="n">
         <v>1.291409828E9</v>
@@ -33879,7 +33879,7 @@
         <v>2.476745312E9</v>
       </c>
       <c r="AP55" s="25" t="n">
-        <v>2.410417327E9</v>
+        <v>1.0185268382E10</v>
       </c>
       <c r="AQ55" s="25" t="n">
         <v>2.333374125E9</v>
@@ -33917,7 +33917,7 @@
         <v>-7.7167075E7</v>
       </c>
       <c r="I56" s="25" t="n">
-        <v>-3.067446969E9</v>
+        <v>-6.326235723E9</v>
       </c>
       <c r="K56" s="25" t="n">
         <v>0.0</v>
@@ -34013,7 +34013,7 @@
         <v>-1.376413848E9</v>
       </c>
       <c r="AP56" s="25" t="n">
-        <v>-3.067446969E9</v>
+        <v>-6.326235723E9</v>
       </c>
       <c r="AQ56" s="25" t="n">
         <v>0.0</v>
@@ -38473,7 +38473,7 @@
         <v>1.106907619E9</v>
       </c>
       <c r="I90" s="25" t="n">
-        <v>1.844923088E9</v>
+        <v>1.846199084E9</v>
       </c>
       <c r="K90" s="25" t="n">
         <v>7.4806151E8</v>
@@ -38569,7 +38569,7 @@
         <v>5.742622736E9</v>
       </c>
       <c r="AP90" s="25" t="n">
-        <v>1.844923088E9</v>
+        <v>1.846199084E9</v>
       </c>
       <c r="AQ90" s="25" t="n">
         <v>6.413528971E9</v>
@@ -38607,7 +38607,7 @@
         <v>2.76348188E8</v>
       </c>
       <c r="I91" s="25" t="n">
-        <v>3.7922447E7</v>
+        <v>6.9287447E7</v>
       </c>
       <c r="K91" s="25" t="n">
         <v>3.40113834E8</v>
@@ -38703,7 +38703,7 @@
         <v>6.90688851E8</v>
       </c>
       <c r="AP91" s="25" t="n">
-        <v>3.7922447E7</v>
+        <v>6.9287447E7</v>
       </c>
       <c r="AQ91" s="25" t="n">
         <v>5.945579E7</v>
@@ -39009,7 +39009,7 @@
         <v>8.29493191E8</v>
       </c>
       <c r="I94" s="25" t="n">
-        <v>1.807000641E9</v>
+        <v>1.776911637E9</v>
       </c>
       <c r="K94" s="25" t="n">
         <v>-3.88858177E8</v>
@@ -39105,7 +39105,7 @@
         <v>1.88276545E9</v>
       </c>
       <c r="AP94" s="25" t="n">
-        <v>1.807000641E9</v>
+        <v>1.776911637E9</v>
       </c>
       <c r="AQ94" s="25" t="n">
         <v>2.673047386E9</v>
@@ -42627,7 +42627,7 @@
         <v>1.925E11</v>
       </c>
       <c r="I121" s="25" t="n">
-        <v>1.925E11</v>
+        <v>0.0</v>
       </c>
       <c r="K121" s="25" t="n">
         <v>1.925E11</v>
@@ -42723,7 +42723,7 @@
         <v>1.925E11</v>
       </c>
       <c r="AP121" s="25" t="n">
-        <v>1.925E11</v>
+        <v>0.0</v>
       </c>
       <c r="AQ121" s="25" t="n">
         <v>1.925E11</v>
@@ -42761,7 +42761,7 @@
         <v>9.8175E10</v>
       </c>
       <c r="I122" s="25" t="n">
-        <v>9.8175E10</v>
+        <v>0.0</v>
       </c>
       <c r="K122" s="25" t="n">
         <v>9.8175E10</v>
@@ -42857,7 +42857,7 @@
         <v>9.8175E10</v>
       </c>
       <c r="AP122" s="25" t="n">
-        <v>9.8175E10</v>
+        <v>0.0</v>
       </c>
       <c r="AQ122" s="25" t="n">
         <v>9.8175E10</v>
@@ -42895,7 +42895,7 @@
         <v>9.4325E10</v>
       </c>
       <c r="I123" s="25" t="n">
-        <v>9.4325E10</v>
+        <v>0.0</v>
       </c>
       <c r="K123" s="25" t="n">
         <v>9.4325E10</v>
@@ -42991,7 +42991,7 @@
         <v>9.4325E10</v>
       </c>
       <c r="AP123" s="25" t="n">
-        <v>9.4325E10</v>
+        <v>0.0</v>
       </c>
       <c r="AQ123" s="25" t="n">
         <v>9.4325E10</v>
@@ -44503,7 +44503,7 @@
         <v>1.08129259043E11</v>
       </c>
       <c r="I135" s="25" t="n">
-        <v>1.04160947904E11</v>
+        <v>1.04111037144E11</v>
       </c>
       <c r="K135" s="25" t="n">
         <v>6.761299815E9</v>
@@ -44599,7 +44599,7 @@
         <v>2.6946590793E10</v>
       </c>
       <c r="AP135" s="25" t="n">
-        <v>2.7308559787E10</v>
+        <v>2.7258649027E10</v>
       </c>
       <c r="AQ135" s="25" t="n">
         <v>2.1405052547E10</v>
@@ -44637,7 +44637,7 @@
         <v>1.08129259043E11</v>
       </c>
       <c r="I136" s="25" t="n">
-        <v>1.04160947904E11</v>
+        <v>1.04111037144E11</v>
       </c>
       <c r="K136" s="25" t="n">
         <v>6.761299815E9</v>
@@ -44733,7 +44733,7 @@
         <v>2.6946590793E10</v>
       </c>
       <c r="AP136" s="25" t="n">
-        <v>2.7308559787E10</v>
+        <v>2.7258649027E10</v>
       </c>
       <c r="AQ136" s="25" t="n">
         <v>2.1405052547E10</v>
@@ -45709,7 +45709,7 @@
         <v>2.4155663773E10</v>
       </c>
       <c r="I144" s="25" t="n">
-        <v>1.6972972693E10</v>
+        <v>1.7170004418E10</v>
       </c>
       <c r="K144" s="25" t="n">
         <v>1.106940367E9</v>
@@ -45805,7 +45805,7 @@
         <v>1.457099536E9</v>
       </c>
       <c r="AP144" s="25" t="n">
-        <v>1.681097784E9</v>
+        <v>1.878129509E9</v>
       </c>
       <c r="AQ144" s="25" t="n">
         <v>1.664250683E9</v>
@@ -45843,7 +45843,7 @@
         <v>1.1833179238E10</v>
       </c>
       <c r="I145" s="25" t="n">
-        <v>7.762409547E9</v>
+        <v>7.959441272E9</v>
       </c>
       <c r="K145" s="25" t="n">
         <v>1.106940367E9</v>
@@ -45939,7 +45939,7 @@
         <v>1.457099536E9</v>
       </c>
       <c r="AP145" s="25" t="n">
-        <v>1.681097784E9</v>
+        <v>1.878129509E9</v>
       </c>
       <c r="AQ145" s="25" t="n">
         <v>1.664250683E9</v>
@@ -48255,7 +48255,7 @@
         <v>1.55218200587E11</v>
       </c>
       <c r="I163" s="25" t="n">
-        <v>1.48693905843E11</v>
+        <v>1.32660492849E11</v>
       </c>
       <c r="K163" s="25" t="n">
         <v>7.901914007E9</v>
@@ -48351,7 +48351,7 @@
         <v>3.3631075732E10</v>
       </c>
       <c r="AP163" s="25" t="n">
-        <v>3.8892909737E10</v>
+        <v>4.0686526201E10</v>
       </c>
       <c r="AQ163" s="25" t="n">
         <v>2.1126584803E10</v>
@@ -48389,7 +48389,7 @@
         <v>3.5150381536E10</v>
       </c>
       <c r="I164" s="25" t="n">
-        <v>3.9745062282E10</v>
+        <v>2.0902326114E10</v>
       </c>
       <c r="K164" s="25" t="n">
         <v>5.46247056E8</v>
@@ -48485,7 +48485,7 @@
         <v>1.3535145792E10</v>
       </c>
       <c r="AP164" s="25" t="n">
-        <v>9.006138943E9</v>
+        <v>-9.836597225E9</v>
       </c>
       <c r="AQ164" s="25" t="n">
         <v>6.73078625E9</v>
@@ -48523,7 +48523,7 @@
         <v>4.68505488E10</v>
       </c>
       <c r="I165" s="25" t="n">
-        <v>4.7898001582E10</v>
+        <v>5.1779956804E10</v>
       </c>
       <c r="K165" s="25" t="n">
         <v>1.4708151E7</v>
@@ -48619,7 +48619,7 @@
         <v>1.2673196727E10</v>
       </c>
       <c r="AP165" s="25" t="n">
-        <v>1.4230943041E10</v>
+        <v>1.8112898263E10</v>
       </c>
       <c r="AQ165" s="25" t="n">
         <v>5.277750542E9</v>
@@ -48657,7 +48657,7 @@
         <v>9.923844829E9</v>
       </c>
       <c r="I166" s="25" t="n">
-        <v>1.0234595812E10</v>
+        <v>9.859232157E9</v>
       </c>
       <c r="K166" s="25" t="n">
         <v>4.325941038E9</v>
@@ -48753,7 +48753,7 @@
         <v>2.476745312E9</v>
       </c>
       <c r="AP166" s="25" t="n">
-        <v>2.410417028E9</v>
+        <v>2.035053373E9</v>
       </c>
       <c r="AQ166" s="25" t="n">
         <v>2.333374125E9</v>
@@ -48925,7 +48925,7 @@
         <v>6.3293425422E10</v>
       </c>
       <c r="I168" s="25" t="n">
-        <v>5.0816246167E10</v>
+        <v>5.0118977774E10</v>
       </c>
       <c r="K168" s="25" t="n">
         <v>2.280957454E9</v>
@@ -49021,7 +49021,7 @@
         <v>4.945987901E9</v>
       </c>
       <c r="AP168" s="25" t="n">
-        <v>1.3245410725E10</v>
+        <v>3.037517179E10</v>
       </c>
       <c r="AQ168" s="25" t="n">
         <v>6.784673886E9</v>

--- a/data/TNC.xlsx
+++ b/data/TNC.xlsx
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>17/12/2025</t>
+    <t>21/12/2025</t>
   </si>
   <si>
     <t>TNC</t>

--- a/data/TNC.xlsx
+++ b/data/TNC.xlsx
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>21/12/2025</t>
+    <t>23/12/2025</t>
   </si>
   <si>
     <t>TNC</t>

--- a/data/TNC.xlsx
+++ b/data/TNC.xlsx
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>23/12/2025</t>
+    <t>25/12/2025</t>
   </si>
   <si>
     <t>TNC</t>
